--- a/aci_config/config-mso_backup_config.xlsx
+++ b/aci_config/config-mso_backup_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseeduardodegodoy/Desktop/Python/ansible-multisite/aci_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB08F8C8-92E8-0440-8CB7-4054D931FE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF109B3-5217-A94D-91F5-44C2069BD15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{8F7C470C-BF93-894B-8481-18F116175E02}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{8F7C470C-BF93-894B-8481-18F116175E02}"/>
   </bookViews>
   <sheets>
     <sheet name="mso_tn_objects" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mso_staticport!$A$1:$K$175</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mso_tn_objects!$A$1:$N$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mso_tn_objects!$A$1:$Q$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="80">
   <si>
     <t>site_name</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>eth1/8</t>
+  </si>
+  <si>
+    <t>sec_subnet</t>
+  </si>
+  <si>
+    <t>gw_sec</t>
+  </si>
+  <si>
+    <t>host_route</t>
   </si>
 </sst>
 </file>
@@ -630,9 +639,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B32B6-399B-3A4D-8991-1BEA3BE3BDAA}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -644,14 +653,17 @@
     <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -676,26 +688,35 @@
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -721,25 +742,32 @@
         <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -765,25 +793,32 @@
         <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -809,25 +844,32 @@
         <v>54</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -853,25 +895,32 @@
         <v>54</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -897,25 +946,32 @@
         <v>54</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -941,25 +997,32 @@
         <v>54</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -984,20 +1047,24 @@
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="I8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1022,21 +1089,25 @@
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="I9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N9" xr:uid="{BB4B32B6-399B-3A4D-8991-1BEA3BE3BDAA}"/>
+  <autoFilter ref="A1:Q9" xr:uid="{BB4B32B6-399B-3A4D-8991-1BEA3BE3BDAA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1045,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4271E126-9AC9-E548-A71F-19D37F75ED4D}">
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
